--- a/biology/Zoologie/Termopsis/Termopsis.xlsx
+++ b/biology/Zoologie/Termopsis/Termopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Termes (Termopsis)
 Termopsis est un genre fossile d'insectes, de l'ordre des blattes et de la famille des Termopsidae.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Termopsis a été publié par Oswald Heer en 1849[1].
-Synonymes
-Ce genre a une alternative de nommage Termes (Termopsis) et un synonyme Xestotermopsis selon von Rosen 1913[1].
-Répartition et âge
-Selon Paleobiology Database en 2023, ce genre a une répartition européenne, avec sept collections de fossiles trouvées dans quatre pays, soit Roumanie (une du Miocène), Allemagne (une de l'Oligocène), Pologne (deux de l'Éocène) et russie (trois de l'Éocène). Ce genre est donc référencé du Priabonien au Serravallien : 38-11,608 Ma[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Termopsis a été publié par Oswald Heer en 1849.
 </t>
         </is>
       </c>
@@ -544,16 +554,92 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a une alternative de nommage Termes (Termopsis) et un synonyme Xestotermopsis selon von Rosen 1913.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Termopsis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Termopsis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition et âge</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, ce genre a une répartition européenne, avec sept collections de fossiles trouvées dans quatre pays, soit Roumanie (une du Miocène), Allemagne (une de l'Oligocène), Pologne (deux de l'Éocène) et russie (trois de l'Éocène). Ce genre est donc référencé du Priabonien au Serravallien : 38-11,608 Ma.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Termopsis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Termopsis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ce genre a six espèces selon GBIF[2] et cinq selon Paleobiology Database[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ce genre a six espèces selon GBIF et cinq selon Paleobiology Database :
 Termopsis bremii (Oswald Heer en 1849)
 Termopsis gracilipennis Théobald, 1937
 Termopsis mallaszi Pongrácz, 1928
-Termopsis procera Oswald Heer en 1849[note 1],[4]
+Termopsis procera Oswald Heer en 1849[note 1],
 Termopsis transsylvanica Pongrácz, 1928
 Termopsis ukapirmasi Engel, Grimaldi &amp; Krishna, 2007</t>
         </is>
